--- a/04-resampling/exercise 4 excel scrap.xlsx
+++ b/04-resampling/exercise 4 excel scrap.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="21140" yWindow="2940" windowWidth="14200" windowHeight="16840" tabRatio="500"/>
+    <workbookView xWindow="9360" yWindow="1400" windowWidth="21640" windowHeight="19520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>exercise 4 - fpr</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>recall -&gt;</t>
+  </si>
+  <si>
+    <t>sens --&gt;</t>
+  </si>
+  <si>
+    <t>spec --&gt;</t>
   </si>
 </sst>
 </file>
@@ -414,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A5" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showRuler="0" topLeftCell="A6" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,11 +590,43 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <f>C9/(C9+C8)</f>
+        <f>C9/C10</f>
         <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <f>C9/(C10)</f>
+        <v>0.72222222222222221</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <f>B8/(D8)</f>
+        <v>0.89795918367346939</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>